--- a/Data/Pertussis incidence.xlsx
+++ b/Data/Pertussis incidence.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="246" documentId="11_B5389A98C34FDD12878E9BE7226F29CD3A0763C4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BBD597C-6DEA-4BB6-B715-A65CFB3E1463}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="12420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="11" r:id="rId1"/>
@@ -3378,7 +3378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7751DB45-78BF-48FE-A8FD-ED30311227FB}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
@@ -4587,7 +4587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E028EEE3-7827-4A6A-B360-7A6997C3B9DB}">
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
@@ -7962,8 +7962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10719,8 +10719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K490"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="G490" sqref="G490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39989,7 +39989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J489"/>
   <sheetViews>
-    <sheetView topLeftCell="A469" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G489" sqref="G489"/>
     </sheetView>
   </sheetViews>

--- a/Data/Pertussis incidence.xlsx
+++ b/Data/Pertussis incidence.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://6kmwxn-my.sharepoint.com/personal/kanggle_globalinfectiousdisease_com/Documents/XMU/likangguo/2024/06 pertussis/PertussisIncidence/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_DAC534BE731DDAF072256778B06909E8BB729CDA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE19638-2AA4-4435-A3E0-7FBA1F9F20F7}"/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12575" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="11" r:id="rId1"/>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7724" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7700" uniqueCount="745">
   <si>
     <t>Name</t>
   </si>
@@ -2275,28 +2281,13 @@
   </si>
   <si>
     <t>https://wonder.cdc.gov/nndss/static/2024/39/2024-39-table990.html</t>
-  </si>
-  <si>
-    <t>https://wonder.cdc.gov/nndss/static/2024/40/2024-40-table990.html</t>
-  </si>
-  <si>
-    <t>https://wonder.cdc.gov/nndss/static/2024/41/2024-41-table990.html</t>
-  </si>
-  <si>
-    <t>https://wonder.cdc.gov/nndss/static/2024/42/2024-42-table990.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2308,7 +2299,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2329,7 +2320,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2345,337 +2336,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2683,249 +2358,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2943,96 +2379,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="51" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="5">
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 2 12" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 2 13" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal 2" xfId="49"/>
-    <cellStyle name="Normal 2 12" xfId="50"/>
-    <cellStyle name="Normal 2 13" xfId="51"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3046,9 +2439,15 @@
       <xdr:row>238</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif"/>
+        <xdr:cNvPr id="129" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3096,9 +2495,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="95250"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif"/>
+        <xdr:cNvPr id="130" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3146,9 +2551,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="95250"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif"/>
+        <xdr:cNvPr id="131" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3201,9 +2612,15 @@
       <xdr:row>236</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="AutoShape 1" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif"/>
+        <xdr:cNvPr id="132" name="AutoShape 1" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3256,9 +2673,15 @@
       <xdr:row>237</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif"/>
+        <xdr:cNvPr id="133" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3311,9 +2734,15 @@
       <xdr:row>247</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="AutoShape 42"/>
+        <xdr:cNvPr id="134" name="AutoShape 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3353,9 +2782,15 @@
       <xdr:row>247</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="AutoShape 44"/>
+        <xdr:cNvPr id="135" name="AutoShape 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3395,9 +2830,15 @@
       <xdr:row>248</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="AutoShape 48"/>
+        <xdr:cNvPr id="136" name="AutoShape 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3432,9 +2873,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="95250"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif"/>
+        <xdr:cNvPr id="137" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3482,9 +2929,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="95250"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif"/>
+        <xdr:cNvPr id="138" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3532,9 +2985,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="95250"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif"/>
+        <xdr:cNvPr id="139" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3582,9 +3041,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="95250"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif"/>
+        <xdr:cNvPr id="140" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3637,9 +3102,15 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif"/>
+        <xdr:cNvPr id="141" name="AutoShape 30" descr="https://intranet-mohiris.moh.gov.sg/irisweb/cimg/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3934,19 +3405,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="3" width="25" customWidth="1"/>
   </cols>
@@ -3973,7 +3444,7 @@
         <v>2015</v>
       </c>
       <c r="C2">
-        <v>13937.154485</v>
+        <v>13937.154484999999</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>5</v>
@@ -4029,7 +3500,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>14218.64031</v>
+        <v>14218.640310000001</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>5</v>
@@ -4057,7 +3528,7 @@
         <v>2021</v>
       </c>
       <c r="C8">
-        <v>14258.934645</v>
+        <v>14258.934644999999</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>5</v>
@@ -4071,7 +3542,7 @@
         <v>2022</v>
       </c>
       <c r="C9">
-        <v>14258.87337</v>
+        <v>14258.873369999999</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>5</v>
@@ -4085,7 +3556,7 @@
         <v>2023</v>
       </c>
       <c r="C10">
-        <v>14256.71352</v>
+        <v>14256.713519999999</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>5</v>
@@ -4099,7 +3570,7 @@
         <v>2024</v>
       </c>
       <c r="C11">
-        <v>14251.787825</v>
+        <v>14251.787824999999</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>5</v>
@@ -4113,7 +3584,7 @@
         <v>2015</v>
       </c>
       <c r="C12">
-        <v>238.202365</v>
+        <v>238.20236499999999</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -4127,7 +3598,7 @@
         <v>2016</v>
       </c>
       <c r="C13">
-        <v>241.957015</v>
+        <v>241.95701500000001</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -4155,7 +3626,7 @@
         <v>2018</v>
       </c>
       <c r="C15">
-        <v>249.7923</v>
+        <v>249.79230000000001</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -4169,7 +3640,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>253.5717</v>
+        <v>253.57169999999999</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -4183,7 +3654,7 @@
         <v>2020</v>
       </c>
       <c r="C17">
-        <v>256.700505</v>
+        <v>256.70050500000002</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -4197,7 +3668,7 @@
         <v>2021</v>
       </c>
       <c r="C18">
-        <v>259.21089</v>
+        <v>259.21089000000001</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -4225,7 +3696,7 @@
         <v>2023</v>
       </c>
       <c r="C20">
-        <v>264.391115</v>
+        <v>264.39111500000001</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -4253,7 +3724,7 @@
         <v>2015</v>
       </c>
       <c r="C22">
-        <v>1272.50933</v>
+        <v>1272.5093300000001</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>9</v>
@@ -4267,7 +3738,7 @@
         <v>2016</v>
       </c>
       <c r="C23">
-        <v>1269.938575</v>
+        <v>1269.9385749999999</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>9</v>
@@ -4295,7 +3766,7 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1262.55866</v>
+        <v>1262.5586599999999</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>9</v>
@@ -4309,7 +3780,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>1257.916765</v>
+        <v>1257.9167649999999</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>9</v>
@@ -4323,7 +3794,7 @@
         <v>2020</v>
       </c>
       <c r="C27">
-        <v>1252.447605</v>
+        <v>1252.4476050000001</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>9</v>
@@ -4365,7 +3836,7 @@
         <v>2023</v>
       </c>
       <c r="C30">
-        <v>1232.94513</v>
+        <v>1232.9451300000001</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>9</v>
@@ -4393,7 +3864,7 @@
         <v>2015</v>
       </c>
       <c r="C32">
-        <v>45.9059</v>
+        <v>45.905900000000003</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>11</v>
@@ -4407,7 +3878,7 @@
         <v>2016</v>
       </c>
       <c r="C33">
-        <v>46.68081</v>
+        <v>46.680810000000001</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>11</v>
@@ -4421,7 +3892,7 @@
         <v>2017</v>
       </c>
       <c r="C34">
-        <v>47.462515</v>
+        <v>47.462515000000003</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>11</v>
@@ -4435,7 +3906,7 @@
         <v>2018</v>
       </c>
       <c r="C35">
-        <v>48.38526</v>
+        <v>48.385260000000002</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>11</v>
@@ -4449,7 +3920,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>49.59034</v>
+        <v>49.590339999999998</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>11</v>
@@ -4463,7 +3934,7 @@
         <v>2020</v>
       </c>
       <c r="C37">
-        <v>50.611335</v>
+        <v>50.611334999999997</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>11</v>
@@ -4477,7 +3948,7 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>51.297275</v>
+        <v>51.297274999999999</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>11</v>
@@ -4491,7 +3962,7 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>51.852885</v>
+        <v>51.852885000000001</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -4505,7 +3976,7 @@
         <v>2023</v>
       </c>
       <c r="C40">
-        <v>52.280995</v>
+        <v>52.280994999999997</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>11</v>
@@ -4519,7 +3990,7 @@
         <v>2024</v>
       </c>
       <c r="C41">
-        <v>52.699385</v>
+        <v>52.699384999999999</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>11</v>
@@ -4533,7 +4004,7 @@
         <v>2015</v>
       </c>
       <c r="C42">
-        <v>652.24364</v>
+        <v>652.24364000000003</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -4547,7 +4018,7 @@
         <v>2016</v>
       </c>
       <c r="C43">
-        <v>656.55203</v>
+        <v>656.55202999999995</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>13</v>
@@ -4561,7 +4032,7 @@
         <v>2017</v>
       </c>
       <c r="C44">
-        <v>660.648045</v>
+        <v>660.64804500000002</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>13</v>
@@ -4575,7 +4046,7 @@
         <v>2018</v>
       </c>
       <c r="C45">
-        <v>664.329935</v>
+        <v>664.32993499999998</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
@@ -4589,7 +4060,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>667.78659</v>
+        <v>667.78659000000005</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -4617,7 +4088,7 @@
         <v>2021</v>
       </c>
       <c r="C48">
-        <v>672.810395</v>
+        <v>672.81039499999997</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>13</v>
@@ -4631,7 +4102,7 @@
         <v>2022</v>
       </c>
       <c r="C49">
-        <v>675.089355</v>
+        <v>675.08935499999995</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>13</v>
@@ -4659,7 +4130,7 @@
         <v>2024</v>
       </c>
       <c r="C51">
-        <v>679.614395</v>
+        <v>679.61439499999994</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>13</v>
@@ -4687,7 +4158,7 @@
         <v>2016</v>
       </c>
       <c r="C53">
-        <v>3272.10198</v>
+        <v>3272.1019799999999</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>15</v>
@@ -4701,7 +4172,7 @@
         <v>2017</v>
       </c>
       <c r="C54">
-        <v>3297.912305</v>
+        <v>3297.9123049999998</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>15</v>
@@ -4715,7 +4186,7 @@
         <v>2018</v>
       </c>
       <c r="C55">
-        <v>3321.400375</v>
+        <v>3321.4003750000002</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>15</v>
@@ -4729,7 +4200,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>3343.196705</v>
+        <v>3343.1967049999998</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>15</v>
@@ -4743,7 +4214,7 @@
         <v>2020</v>
       </c>
       <c r="C57">
-        <v>3359.420035</v>
+        <v>3359.4200350000001</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>15</v>
@@ -4771,7 +4242,7 @@
         <v>2022</v>
       </c>
       <c r="C59">
-        <v>3382.89857</v>
+        <v>3382.8985699999998</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>15</v>
@@ -4799,7 +4270,7 @@
         <v>2024</v>
       </c>
       <c r="C61">
-        <v>3418.1442</v>
+        <v>3418.1442000000002</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>15</v>
@@ -4813,7 +4284,7 @@
         <v>2012</v>
       </c>
       <c r="C62">
-        <v>53.810045</v>
+        <v>53.810045000000002</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>17</v>
@@ -4827,7 +4298,7 @@
         <v>2013</v>
       </c>
       <c r="C63">
-        <v>54.780545</v>
+        <v>54.780544999999996</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>17</v>
@@ -4841,7 +4312,7 @@
         <v>2014</v>
       </c>
       <c r="C64">
-        <v>55.705015</v>
+        <v>55.705015000000003</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>17</v>
@@ -4869,7 +4340,7 @@
         <v>2016</v>
       </c>
       <c r="C66">
-        <v>57.11933</v>
+        <v>57.119329999999998</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>17</v>
@@ -4883,7 +4354,7 @@
         <v>2017</v>
       </c>
       <c r="C67">
-        <v>57.64487</v>
+        <v>57.644869999999997</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>17</v>
@@ -4897,7 +4368,7 @@
         <v>2018</v>
       </c>
       <c r="C68">
-        <v>58.145365</v>
+        <v>58.145364999999998</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>17</v>
@@ -4911,7 +4382,7 @@
         <v>2019</v>
       </c>
       <c r="C69">
-        <v>58.66405</v>
+        <v>58.664050000000003</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>17</v>
@@ -4925,7 +4396,7 @@
         <v>2020</v>
       </c>
       <c r="C70">
-        <v>59.098695</v>
+        <v>59.098694999999999</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>17</v>
@@ -4939,7 +4410,7 @@
         <v>2021</v>
       </c>
       <c r="C71">
-        <v>59.410605</v>
+        <v>59.410604999999997</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>17</v>
@@ -4953,7 +4424,7 @@
         <v>2022</v>
       </c>
       <c r="C72">
-        <v>59.756885</v>
+        <v>59.756884999999997</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>17</v>
@@ -4981,7 +4452,7 @@
         <v>2024</v>
       </c>
       <c r="C74">
-        <v>60.527095</v>
+        <v>60.527095000000003</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>17</v>
@@ -4995,7 +4466,7 @@
         <v>2014</v>
       </c>
       <c r="C75">
-        <v>97.475085</v>
+        <v>97.475085000000007</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>19</v>
@@ -5009,7 +4480,7 @@
         <v>2015</v>
       </c>
       <c r="C76">
-        <v>98.493485</v>
+        <v>98.493485000000007</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>19</v>
@@ -5023,7 +4494,7 @@
         <v>2016</v>
       </c>
       <c r="C77">
-        <v>99.53317</v>
+        <v>99.533169999999998</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>19</v>
@@ -5121,7 +4592,7 @@
         <v>2023</v>
       </c>
       <c r="C84">
-        <v>106.12086</v>
+        <v>106.12085999999999</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>19</v>
@@ -5142,24 +4613,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="74.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="7" max="7" width="74.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8567,42 +8037,36 @@
       <c r="H175" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H114" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:H114">
-      <sortCondition ref="A1:A114"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H114" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://nindss.health.gov.au/pbi-dashboard/"/>
-    <hyperlink ref="G114" r:id="rId1" display="https://nindss.health.gov.au/pbi-dashboard/"/>
-    <hyperlink ref="G115" r:id="rId1" display="https://nindss.health.gov.au/pbi-dashboard/"/>
-    <hyperlink ref="G116" r:id="rId1" display="https://nindss.health.gov.au/pbi-dashboard/"/>
-    <hyperlink ref="G117" r:id="rId1" display="https://nindss.health.gov.au/pbi-dashboard/"/>
-    <hyperlink ref="G118" r:id="rId1" display="https://nindss.health.gov.au/pbi-dashboard/"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G114" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G115" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G116" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G117" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="G118" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="7" max="7" width="92.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="11.1111111111111"/>
+    <col min="7" max="7" width="92.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.08203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -8888,7 +8352,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>42309</v>
       </c>
@@ -8912,7 +8376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>42339</v>
       </c>
@@ -8936,7 +8400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>42370</v>
       </c>
@@ -8960,7 +8424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>42401</v>
       </c>
@@ -8984,7 +8448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>42430</v>
       </c>
@@ -11451,35 +10915,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.cdctj.com.cn/system/2015/02/12/013081051.shtml"/>
-    <hyperlink ref="G115" r:id="rId2" display="https://www.ndcpa.gov.cn/jbkzzx/c100016/common/content/content_1817735919697768448.html" tooltip="https://www.ndcpa.gov.cn/jbkzzx/c100016/common/content/content_1817735919697768448.html"/>
-    <hyperlink ref="G116" r:id="rId3" display="https://www.ndcpa.gov.cn/jbkzzx/c100016/common/content/content_1828699266119217152.html"/>
-    <hyperlink ref="G117" r:id="rId4" display="https://www.ndcpa.gov.cn/jbkzzx/c100016/common/content/content_1834433420274282496.html"/>
-    <hyperlink ref="G118" r:id="rId5" display="https://www.ndcpa.gov.cn/jbkzzx/c100016/common/content/content_1848255166500679680.html"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G115" r:id="rId2" tooltip="https://www.ndcpa.gov.cn/jbkzzx/c100016/common/content/content_1817735919697768448.html" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="G116" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G117" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="G118" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K497"/>
   <sheetViews>
-    <sheetView topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="G506" sqref="G506"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="E500" sqref="E500"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="7" max="7" width="108.222222222222" customWidth="1"/>
-    <col min="11" max="11" width="10.2222222222222"/>
+    <col min="7" max="7" width="108.25" customWidth="1"/>
+    <col min="11" max="11" width="10.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -11505,7 +10968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>42002</v>
       </c>
@@ -11529,7 +10992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>42009</v>
       </c>
@@ -11553,7 +11016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>42016</v>
       </c>
@@ -11837,7 +11300,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>42093</v>
       </c>
@@ -11861,7 +11324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>42100</v>
       </c>
@@ -13805,7 +13268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>42667</v>
       </c>
@@ -14089,7 +13552,7 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>42744</v>
       </c>
@@ -14113,7 +13576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>42751</v>
       </c>
@@ -14137,7 +13600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>42758</v>
       </c>
@@ -14161,7 +13624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>42765</v>
       </c>
@@ -14185,7 +13648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>42772</v>
       </c>
@@ -16129,7 +15592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>43339</v>
       </c>
@@ -16413,7 +15876,7 @@
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>43416</v>
       </c>
@@ -16437,7 +15900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>43423</v>
       </c>
@@ -16461,7 +15924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>43430</v>
       </c>
@@ -16485,7 +15948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>43437</v>
       </c>
@@ -16509,7 +15972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>43444</v>
       </c>
@@ -18713,7 +18176,7 @@
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44081</v>
       </c>
@@ -18737,7 +18200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44088</v>
       </c>
@@ -18761,7 +18224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44095</v>
       </c>
@@ -18785,7 +18248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44102</v>
       </c>
@@ -18809,7 +18272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44109</v>
       </c>
@@ -18833,7 +18296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44116</v>
       </c>
@@ -20009,7 +19472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:11">
       <c r="A353" s="2">
         <v>44459</v>
       </c>
@@ -20033,7 +19496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:11">
       <c r="A354" s="2">
         <v>44466</v>
       </c>
@@ -20057,7 +19520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:11">
       <c r="A355" s="2">
         <v>44473</v>
       </c>
@@ -20081,7 +19544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:11">
       <c r="A356" s="2">
         <v>44480</v>
       </c>
@@ -20105,7 +19568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:11">
       <c r="A357" s="2">
         <v>44487</v>
       </c>
@@ -20129,7 +19592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:11">
       <c r="A358" s="2">
         <v>44494</v>
       </c>
@@ -20153,7 +19616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:11">
       <c r="A359" s="2">
         <v>44501</v>
       </c>
@@ -20177,7 +19640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:11">
       <c r="A360" s="2">
         <v>44508</v>
       </c>
@@ -20201,7 +19664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:11">
       <c r="A361" s="2">
         <v>44515</v>
       </c>
@@ -20485,7 +19948,7 @@
       <c r="J371" s="3"/>
       <c r="K371" s="3"/>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:11">
       <c r="A372" s="2">
         <v>44592</v>
       </c>
@@ -20509,7 +19972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:11">
       <c r="A373" s="2">
         <v>44599</v>
       </c>
@@ -20533,7 +19996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:11">
       <c r="A374" s="2">
         <v>44606</v>
       </c>
@@ -20557,7 +20020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:11">
       <c r="A375" s="2">
         <v>44613</v>
       </c>
@@ -20581,7 +20044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:11">
       <c r="A376" s="2">
         <v>44620</v>
       </c>
@@ -20605,7 +20068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:11">
       <c r="A377" s="2">
         <v>44627</v>
       </c>
@@ -20629,7 +20092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:11">
       <c r="A378" s="2">
         <v>44634</v>
       </c>
@@ -20653,7 +20116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:11">
       <c r="A379" s="2">
         <v>44641</v>
       </c>
@@ -20677,7 +20140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:11">
       <c r="A380" s="2">
         <v>44648</v>
       </c>
@@ -20701,7 +20164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:11">
       <c r="A381" s="2">
         <v>44655</v>
       </c>
@@ -20725,7 +20188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:11">
       <c r="A382" s="2">
         <v>44662</v>
       </c>
@@ -20749,7 +20212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:11">
       <c r="A383" s="2">
         <v>44669</v>
       </c>
@@ -20773,7 +20236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:11">
       <c r="A384" s="2">
         <v>44676</v>
       </c>
@@ -21565,7 +21028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:11">
       <c r="A417" s="2">
         <v>44907</v>
       </c>
@@ -21589,7 +21052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:11">
       <c r="A418" s="2">
         <v>44914</v>
       </c>
@@ -21613,7 +21076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:11">
       <c r="A419" s="2">
         <v>44921</v>
       </c>
@@ -21637,7 +21100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:11">
       <c r="A420" s="2">
         <v>44928</v>
       </c>
@@ -21661,7 +21124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:11">
       <c r="A421" s="2">
         <v>44935</v>
       </c>
@@ -21685,7 +21148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:11">
       <c r="A422" s="2">
         <v>44942</v>
       </c>
@@ -21709,7 +21172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:11">
       <c r="A423" s="2">
         <v>44949</v>
       </c>
@@ -21733,7 +21196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:11">
       <c r="A424" s="2">
         <v>44956</v>
       </c>
@@ -21757,7 +21220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:11">
       <c r="A425" s="2">
         <v>44963</v>
       </c>
@@ -21781,7 +21244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:11">
       <c r="A426" s="2">
         <v>44970</v>
       </c>
@@ -21805,7 +21268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:11">
       <c r="A427" s="2">
         <v>44977</v>
       </c>
@@ -22089,7 +21552,7 @@
       <c r="J437" s="3"/>
       <c r="K437" s="3"/>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:11">
       <c r="A438" s="2">
         <v>45054</v>
       </c>
@@ -22113,7 +21576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:11">
       <c r="A439" s="2">
         <v>45061</v>
       </c>
@@ -22137,7 +21600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:11">
       <c r="A440" s="2">
         <v>45068</v>
       </c>
@@ -22161,7 +21624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:11">
       <c r="A441" s="2">
         <v>45075</v>
       </c>
@@ -22185,7 +21648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:11">
       <c r="A442" s="2">
         <v>45082</v>
       </c>
@@ -22209,7 +21672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:11">
       <c r="A443" s="2">
         <v>45089</v>
       </c>
@@ -22233,7 +21696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:11">
       <c r="A444" s="2">
         <v>45096</v>
       </c>
@@ -22257,7 +21720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:11">
       <c r="A445" s="2">
         <v>45103</v>
       </c>
@@ -22281,7 +21744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:11">
       <c r="A446" s="2">
         <v>45110</v>
       </c>
@@ -22305,7 +21768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:11">
       <c r="A447" s="2">
         <v>45117</v>
       </c>
@@ -22329,7 +21792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:11">
       <c r="A448" s="2">
         <v>45124</v>
       </c>
@@ -22737,7 +22200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:11">
       <c r="A465" s="2">
         <v>45243</v>
       </c>
@@ -22761,7 +22224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:11">
       <c r="A466" s="2">
         <v>45250</v>
       </c>
@@ -22785,7 +22248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:11">
       <c r="A467" s="2">
         <v>45257</v>
       </c>
@@ -22809,7 +22272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:11">
       <c r="A468" s="2">
         <v>45264</v>
       </c>
@@ -22833,7 +22296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:11">
       <c r="A469" s="2">
         <v>45271</v>
       </c>
@@ -22857,7 +22320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:11">
       <c r="A470" s="2">
         <v>45278</v>
       </c>
@@ -22881,7 +22344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:11">
       <c r="A471" s="2">
         <v>45285</v>
       </c>
@@ -22905,7 +22368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:11">
       <c r="A472" s="2">
         <v>45292</v>
       </c>
@@ -22929,7 +22392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:11">
       <c r="A473" s="2">
         <v>45299</v>
       </c>
@@ -22953,7 +22416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:11">
       <c r="A474" s="2">
         <v>45306</v>
       </c>
@@ -22977,7 +22440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:11">
       <c r="A475" s="2">
         <v>45313</v>
       </c>
@@ -23001,7 +22464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:11">
       <c r="A476" s="2">
         <v>45320</v>
       </c>
@@ -23025,7 +22488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:11">
       <c r="A477" s="2">
         <v>45327</v>
       </c>
@@ -23049,7 +22512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:11">
       <c r="A478" s="2">
         <v>45334</v>
       </c>
@@ -23073,7 +22536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:11">
       <c r="A479" s="2">
         <v>45341</v>
       </c>
@@ -23357,7 +22820,7 @@
       <c r="J489" s="3"/>
       <c r="K489" s="3"/>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:11">
       <c r="A490" s="2">
         <v>45418</v>
       </c>
@@ -23381,7 +22844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:11">
       <c r="A491" s="2">
         <v>45425</v>
       </c>
@@ -23404,7 +22867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:11">
       <c r="A492" s="2">
         <v>45432</v>
       </c>
@@ -23427,7 +22890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:11">
       <c r="A493" s="2">
         <v>45439</v>
       </c>
@@ -23450,7 +22913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:11">
       <c r="A494" s="2">
         <v>45446</v>
       </c>
@@ -23473,7 +22936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:11">
       <c r="A495" s="2">
         <v>45453</v>
       </c>
@@ -23496,7 +22959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:11">
       <c r="A496" s="2">
         <v>45460</v>
       </c>
@@ -23526,39 +22989,33 @@
       <c r="G497" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H496" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:H496">
-      <sortCondition ref="A1:A490"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H496" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G496" r:id="rId1" display="https://assets.publishing.service.gov.uk/media/667d98465b0d63b556a4b467/NOIDS-weekly-report-2024-week-25.pdf" tooltip="https://assets.publishing.service.gov.uk/media/667d98465b0d63b556a4b467/NOIDS-weekly-report-2024-week-25.pdf"/>
-    <hyperlink ref="G491" r:id="rId2" display="https://assets.publishing.service.gov.uk/media/667448437d0f95cd08d0dbd4/NOIDS-weekly-report-2024-week-24.pdf" tooltip="https://assets.publishing.service.gov.uk/media/667448437d0f95cd08d0dbd4/NOIDS-weekly-report-2024-week-24.pdf"/>
-    <hyperlink ref="G492" r:id="rId1" display="https://assets.publishing.service.gov.uk/media/667d98465b0d63b556a4b467/NOIDS-weekly-report-2024-week-25.pdf"/>
-    <hyperlink ref="G487" r:id="rId3" display="https://assets.publishing.service.gov.uk/media/65f45bb950397e0011c75595/notifiable-diseases-weekly-revised-tables-2024-week-10.xls"/>
-    <hyperlink ref="G486" r:id="rId3" display="https://assets.publishing.service.gov.uk/media/65f45bb950397e0011c75595/notifiable-diseases-weekly-revised-tables-2024-week-10.xls"/>
-    <hyperlink ref="G495" r:id="rId1" display="https://assets.publishing.service.gov.uk/media/667d98465b0d63b556a4b467/NOIDS-weekly-report-2024-week-25.pdf"/>
+    <hyperlink ref="G496" r:id="rId1" tooltip="https://assets.publishing.service.gov.uk/media/667d98465b0d63b556a4b467/NOIDS-weekly-report-2024-week-25.pdf" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G491" r:id="rId2" tooltip="https://assets.publishing.service.gov.uk/media/667448437d0f95cd08d0dbd4/NOIDS-weekly-report-2024-week-24.pdf" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="G492" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="G487" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="G486" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="G495" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K513"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K511"/>
   <sheetViews>
     <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="G513" sqref="G513"/>
+      <selection activeCell="A510" sqref="A510"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="85.4444444444444" customWidth="1"/>
-    <col min="10" max="11" width="11.1111111111111"/>
+    <col min="1" max="1" width="11.4140625" customWidth="1"/>
+    <col min="7" max="7" width="85.4140625" customWidth="1"/>
+    <col min="10" max="11" width="11.08203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -23823,7 +23280,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>42065</v>
       </c>
@@ -23847,7 +23304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>42072</v>
       </c>
@@ -23871,7 +23328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>42079</v>
       </c>
@@ -23895,7 +23352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>42086</v>
       </c>
@@ -23919,7 +23376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>42093</v>
       </c>
@@ -23943,7 +23400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>42100</v>
       </c>
@@ -35803,96 +35260,47 @@
       </c>
     </row>
     <row r="511" spans="1:8">
-      <c r="A511" s="6">
-        <v>45565</v>
-      </c>
-      <c r="B511" s="1">
-        <v>2024</v>
-      </c>
-      <c r="D511">
-        <v>40</v>
-      </c>
-      <c r="E511" t="s">
-        <v>28</v>
-      </c>
-      <c r="F511">
-        <v>133</v>
-      </c>
-      <c r="G511" t="s">
-        <v>216</v>
-      </c>
-      <c r="H511" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
-      <c r="A512" s="6">
-        <v>45572</v>
-      </c>
-      <c r="B512" s="1">
-        <v>2024</v>
-      </c>
-      <c r="D512">
-        <v>41</v>
-      </c>
-      <c r="E512" t="s">
-        <v>28</v>
-      </c>
-      <c r="F512">
-        <v>139</v>
-      </c>
-      <c r="G512" t="s">
-        <v>216</v>
-      </c>
-      <c r="H512" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1">
-      <c r="A513" s="6"/>
+      <c r="A511" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G494" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G493" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G495" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G496" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G497" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G498" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G499" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G500" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G501" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G502" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G503" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G504" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G505" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G506" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G507" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G508" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G509" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G510" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G511" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
-    <hyperlink ref="G512" r:id="rId1" display="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html" tooltip="https://www.niid.go.jp/niid/en/survaillance-data-table-english.html"/>
+    <hyperlink ref="G494" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="G493" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="G495" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="G496" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="G497" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="G498" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="G499" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="G500" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="G501" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="G502" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="G503" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="G504" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="G505" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="G506" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="G507" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="G508" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="G509" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="G510" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="67.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="9.33333333333333"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="67.75" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -36281,7 +35689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>42461</v>
       </c>
@@ -36305,7 +35713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>42491</v>
       </c>
@@ -36329,7 +35737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>42522</v>
       </c>
@@ -36353,7 +35761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>42552</v>
       </c>
@@ -36377,7 +35785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>42583</v>
       </c>
@@ -36401,7 +35809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>42614</v>
       </c>
@@ -36425,7 +35833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>42644</v>
       </c>
@@ -36449,7 +35857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>42675</v>
       </c>
@@ -36473,7 +35881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>42705</v>
       </c>
@@ -36497,7 +35905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>42736</v>
       </c>
@@ -36521,7 +35929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>42767</v>
       </c>
@@ -36805,7 +36213,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>43101</v>
       </c>
@@ -36829,7 +36237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>43132</v>
       </c>
@@ -36853,7 +36261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>43160</v>
       </c>
@@ -36877,7 +36285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>43191</v>
       </c>
@@ -36901,7 +36309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>43221</v>
       </c>
@@ -36925,7 +36333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>43252</v>
       </c>
@@ -36949,7 +36357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>43282</v>
       </c>
@@ -36973,7 +36381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>43313</v>
       </c>
@@ -36997,7 +36405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>43344</v>
       </c>
@@ -37021,7 +36429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>43374</v>
       </c>
@@ -37045,7 +36453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>43405</v>
       </c>
@@ -38745,29 +38153,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.esr.cri.nz/digital-library/monthly-notifiable-disease-surveillance-reports-for-2015/"/>
-    <hyperlink ref="G114" r:id="rId2" display="https://www.esr.cri.nz/digital-library/pertussis-dashboard/"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="G114" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="171.472222222222" customWidth="1"/>
-    <col min="10" max="10" width="10.2222222222222"/>
+    <col min="7" max="7" width="171.5" customWidth="1"/>
+    <col min="10" max="10" width="10.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -39540,7 +38947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>42948</v>
       </c>
@@ -39564,7 +38971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>42979</v>
       </c>
@@ -39588,7 +38995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>43009</v>
       </c>
@@ -39612,7 +39019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>43040</v>
       </c>
@@ -39636,7 +39043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>43070</v>
       </c>
@@ -39660,7 +39067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>43101</v>
       </c>
@@ -39970,7 +39377,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>43466</v>
       </c>
@@ -39994,7 +39401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
         <v>43497</v>
       </c>
@@ -40018,7 +39425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:10">
       <c r="A52" s="2">
         <v>43525</v>
       </c>
@@ -40042,7 +39449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:10">
       <c r="A53" s="2">
         <v>43556</v>
       </c>
@@ -40066,7 +39473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:10">
       <c r="A54" s="2">
         <v>43586</v>
       </c>
@@ -40090,7 +39497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:10">
       <c r="A55" s="2">
         <v>43617</v>
       </c>
@@ -40114,7 +39521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:10">
       <c r="A56" s="2">
         <v>43647</v>
       </c>
@@ -40138,7 +39545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:10">
       <c r="A57" s="2">
         <v>43678</v>
       </c>
@@ -40162,7 +39569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:10">
       <c r="A58" s="2">
         <v>43709</v>
       </c>
@@ -40186,7 +39593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:10">
       <c r="A59" s="2">
         <v>43739</v>
       </c>
@@ -40210,7 +39617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:10">
       <c r="A60" s="2">
         <v>43770</v>
       </c>
@@ -40234,7 +39641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:10">
       <c r="A61" s="2">
         <v>43800</v>
       </c>
@@ -40258,7 +39665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:10">
       <c r="A62" s="2">
         <v>43831</v>
       </c>
@@ -40282,7 +39689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:10">
       <c r="A63" s="2">
         <v>43862</v>
       </c>
@@ -40306,7 +39713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:10">
       <c r="A64" s="2">
         <v>43891</v>
       </c>
@@ -40714,7 +40121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:10">
       <c r="A81" s="2">
         <v>44409</v>
       </c>
@@ -40738,7 +40145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:10">
       <c r="A82" s="2">
         <v>44440</v>
       </c>
@@ -40762,7 +40169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>44470</v>
       </c>
@@ -40786,7 +40193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>44501</v>
       </c>
@@ -40810,7 +40217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>44531</v>
       </c>
@@ -40834,7 +40241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>44562</v>
       </c>
@@ -40858,7 +40265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:10">
       <c r="A87" s="2">
         <v>44593</v>
       </c>
@@ -40882,7 +40289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:10">
       <c r="A88" s="2">
         <v>44621</v>
       </c>
@@ -41192,7 +40599,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:10">
       <c r="A100" s="2">
         <v>44986</v>
       </c>
@@ -41216,7 +40623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:10">
       <c r="A101" s="2">
         <v>45017</v>
       </c>
@@ -41240,7 +40647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:10">
       <c r="A102" s="2">
         <v>45047</v>
       </c>
@@ -41264,7 +40671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:10">
       <c r="A103" s="2">
         <v>45078</v>
       </c>
@@ -41288,7 +40695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:10">
       <c r="A104" s="2">
         <v>45108</v>
       </c>
@@ -41312,7 +40719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:10">
       <c r="A105" s="2">
         <v>45139</v>
       </c>
@@ -41336,7 +40743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:10">
       <c r="A106" s="2">
         <v>45170</v>
       </c>
@@ -41360,7 +40767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:10">
       <c r="A107" s="2">
         <v>45200</v>
       </c>
@@ -41384,7 +40791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:10">
       <c r="A108" s="2">
         <v>45231</v>
       </c>
@@ -41408,7 +40815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:10">
       <c r="A109" s="2">
         <v>45261</v>
       </c>
@@ -41432,7 +40839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:10">
       <c r="A110" s="2">
         <v>45292</v>
       </c>
@@ -41456,7 +40863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:10">
       <c r="A111" s="2">
         <v>45323</v>
       </c>
@@ -41480,7 +40887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:10">
       <c r="A112" s="2">
         <v>45352</v>
       </c>
@@ -41644,31 +41051,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G115" r:id="rId1" display="https://www.folkhalsomyndigheten.se/folkhalsorapportering-statistik/statistik-a-o/sjukdomsstatistik/kikhosta/?tab=tab-region&amp;year%5B%5D=2024&amp;rid%5B%5D=112229&amp;scope%5B%5D=all"/>
-    <hyperlink ref="G116" r:id="rId1" display="https://www.folkhalsomyndigheten.se/folkhalsorapportering-statistik/statistik-a-o/sjukdomsstatistik/kikhosta/?tab=tab-region&amp;year%5B%5D=2024&amp;rid%5B%5D=112229&amp;scope%5B%5D=all"/>
-    <hyperlink ref="G117" r:id="rId1" display="https://www.folkhalsomyndigheten.se/folkhalsorapportering-statistik/statistik-a-o/sjukdomsstatistik/kikhosta/?tab=tab-region&amp;year%5B%5D=2024&amp;rid%5B%5D=112229&amp;scope%5B%5D=all"/>
-    <hyperlink ref="G118" r:id="rId1" display="https://www.folkhalsomyndigheten.se/folkhalsorapportering-statistik/statistik-a-o/sjukdomsstatistik/kikhosta/?tab=tab-region&amp;year%5B%5D=2024&amp;rid%5B%5D=112229&amp;scope%5B%5D=all"/>
+    <hyperlink ref="G115" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="G116" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="G117" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="G118" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J512"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J509"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="G517" sqref="G517"/>
+    <sheetView topLeftCell="A478" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F526" sqref="F526"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="130.990740740741" customWidth="1"/>
-    <col min="10" max="10" width="9.33333333333333"/>
+    <col min="1" max="1" width="13.9140625" customWidth="1"/>
+    <col min="7" max="7" width="131" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -42042,7 +41448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17" s="6">
         <v>42113</v>
       </c>
@@ -42065,7 +41471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18" s="6">
         <v>42120</v>
       </c>
@@ -42088,7 +41494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19" s="6">
         <v>42127</v>
       </c>
@@ -42111,7 +41517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20" s="6">
         <v>42134</v>
       </c>
@@ -42134,7 +41540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21" s="6">
         <v>42141</v>
       </c>
@@ -42157,7 +41563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22" s="6">
         <v>42148</v>
       </c>
@@ -42180,7 +41586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10">
       <c r="A23" s="6">
         <v>42155</v>
       </c>
@@ -42203,7 +41609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24" s="6">
         <v>42162</v>
       </c>
@@ -42226,7 +41632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25" s="6">
         <v>42169</v>
       </c>
@@ -42249,7 +41655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26" s="6">
         <v>42176</v>
       </c>
@@ -42597,7 +42003,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10">
       <c r="A40" s="6">
         <v>42274</v>
       </c>
@@ -42620,7 +42026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41" s="6">
         <v>42281</v>
       </c>
@@ -42643,7 +42049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10">
       <c r="A42" s="6">
         <v>42288</v>
       </c>
@@ -42666,7 +42072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:10">
       <c r="A43" s="6">
         <v>42295</v>
       </c>
@@ -42689,7 +42095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44" s="6">
         <v>42302</v>
       </c>
@@ -42712,7 +42118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45" s="6">
         <v>42309</v>
       </c>
@@ -42735,7 +42141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46" s="6">
         <v>42316</v>
       </c>
@@ -42758,7 +42164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10">
       <c r="A47" s="6">
         <v>42323</v>
       </c>
@@ -42781,7 +42187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10">
       <c r="A48" s="6">
         <v>42330</v>
       </c>
@@ -43908,7 +43314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:10">
       <c r="A97" s="6">
         <v>42673</v>
       </c>
@@ -43931,7 +43337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:10">
       <c r="A98" s="6">
         <v>42680</v>
       </c>
@@ -43954,7 +43360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:10">
       <c r="A99" s="6">
         <v>42687</v>
       </c>
@@ -45406,7 +44812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:10">
       <c r="A161" s="6">
         <v>43121</v>
       </c>
@@ -45754,7 +45160,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:10">
       <c r="A175" s="6">
         <v>43219</v>
       </c>
@@ -45777,7 +45183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:10">
       <c r="A176" s="6">
         <v>43226</v>
       </c>
@@ -46536,7 +45942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:10">
       <c r="A209" s="6">
         <v>43457</v>
       </c>
@@ -46559,7 +45965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:10">
       <c r="A210" s="6">
         <v>43464</v>
       </c>
@@ -46582,7 +45988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:10">
       <c r="A211" s="6">
         <v>43471</v>
       </c>
@@ -46605,7 +46011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:10">
       <c r="A212" s="6">
         <v>43478</v>
       </c>
@@ -46628,7 +46034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:10">
       <c r="A213" s="6">
         <v>43485</v>
       </c>
@@ -46651,7 +46057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:10">
       <c r="A214" s="6">
         <v>43492</v>
       </c>
@@ -46674,7 +46080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:10">
       <c r="A215" s="6">
         <v>43499</v>
       </c>
@@ -46697,7 +46103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:10">
       <c r="A216" s="6">
         <v>43506</v>
       </c>
@@ -46720,7 +46126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:10">
       <c r="A217" s="6">
         <v>43513</v>
       </c>
@@ -46743,7 +46149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:10">
       <c r="A218" s="6">
         <v>43520</v>
       </c>
@@ -46766,7 +46172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:10">
       <c r="A219" s="6">
         <v>43527</v>
       </c>
@@ -46789,7 +46195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:10">
       <c r="A220" s="6">
         <v>43534</v>
       </c>
@@ -46812,7 +46218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:10">
       <c r="A221" s="6">
         <v>43541</v>
       </c>
@@ -46835,7 +46241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:10">
       <c r="A222" s="6">
         <v>43548</v>
       </c>
@@ -46858,7 +46264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:10">
       <c r="A223" s="6">
         <v>43555</v>
       </c>
@@ -47206,7 +46612,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:10">
       <c r="A237" s="6">
         <v>43653</v>
       </c>
@@ -47229,7 +46635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:10">
       <c r="A238" s="6">
         <v>43660</v>
       </c>
@@ -47252,7 +46658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:10">
       <c r="A239" s="6">
         <v>43667</v>
       </c>
@@ -47275,7 +46681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:10">
       <c r="A240" s="6">
         <v>43674</v>
       </c>
@@ -48034,7 +47440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:10">
       <c r="A273" s="6">
         <v>43905</v>
       </c>
@@ -48057,7 +47463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:10">
       <c r="A274" s="6">
         <v>43912</v>
       </c>
@@ -48080,7 +47486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:10">
       <c r="A275" s="6">
         <v>43919</v>
       </c>
@@ -48103,7 +47509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:10">
       <c r="A276" s="6">
         <v>43926</v>
       </c>
@@ -48126,7 +47532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:10">
       <c r="A277" s="6">
         <v>43933</v>
       </c>
@@ -48149,7 +47555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:10">
       <c r="A278" s="6">
         <v>43940</v>
       </c>
@@ -48172,7 +47578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:10">
       <c r="A279" s="6">
         <v>43947</v>
       </c>
@@ -48195,7 +47601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:10">
       <c r="A280" s="6">
         <v>43954</v>
       </c>
@@ -48218,7 +47624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:10">
       <c r="A281" s="6">
         <v>43961</v>
       </c>
@@ -48241,7 +47647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:10">
       <c r="A282" s="6">
         <v>43968</v>
       </c>
@@ -48264,7 +47670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:10">
       <c r="A283" s="6">
         <v>43975</v>
       </c>
@@ -48612,7 +48018,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:10">
       <c r="A297" s="6">
         <v>44073</v>
       </c>
@@ -48635,7 +48041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:10">
       <c r="A298" s="6">
         <v>44080</v>
       </c>
@@ -48658,7 +48064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:10">
       <c r="A299" s="6">
         <v>44087</v>
       </c>
@@ -48681,7 +48087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:10">
       <c r="A300" s="6">
         <v>44094</v>
       </c>
@@ -48704,7 +48110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:10">
       <c r="A301" s="6">
         <v>44101</v>
       </c>
@@ -48727,7 +48133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:10">
       <c r="A302" s="6">
         <v>44108</v>
       </c>
@@ -48750,7 +48156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:10">
       <c r="A303" s="6">
         <v>44115</v>
       </c>
@@ -48773,7 +48179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:10">
       <c r="A304" s="6">
         <v>44122</v>
       </c>
@@ -49532,7 +48938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:10">
       <c r="A337" s="6">
         <v>44353</v>
       </c>
@@ -49555,7 +48961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:10">
       <c r="A338" s="6">
         <v>44360</v>
       </c>
@@ -49578,7 +48984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:10">
       <c r="A339" s="6">
         <v>44367</v>
       </c>
@@ -49601,7 +49007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:10">
       <c r="A340" s="6">
         <v>44374</v>
       </c>
@@ -49624,7 +49030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:10">
       <c r="A341" s="6">
         <v>44381</v>
       </c>
@@ -49972,7 +49378,7 @@
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:10">
       <c r="A355" s="6">
         <v>44479</v>
       </c>
@@ -49995,7 +49401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:10">
       <c r="A356" s="6">
         <v>44486</v>
       </c>
@@ -50018,7 +49424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:10">
       <c r="A357" s="6">
         <v>44493</v>
       </c>
@@ -50041,7 +49447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:10">
       <c r="A358" s="6">
         <v>44500</v>
       </c>
@@ -50064,7 +49470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:10">
       <c r="A359" s="6">
         <v>44507</v>
       </c>
@@ -50087,7 +49493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:10">
       <c r="A360" s="6">
         <v>44514</v>
       </c>
@@ -50110,7 +49516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:10">
       <c r="A361" s="6">
         <v>44521</v>
       </c>
@@ -50133,7 +49539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:10">
       <c r="A362" s="6">
         <v>44528</v>
       </c>
@@ -50156,7 +49562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:10">
       <c r="A363" s="6">
         <v>44535</v>
       </c>
@@ -50179,7 +49585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:10">
       <c r="A364" s="6">
         <v>44542</v>
       </c>
@@ -50202,7 +49608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:10">
       <c r="A365" s="6">
         <v>44549</v>
       </c>
@@ -50225,7 +49631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:10">
       <c r="A366" s="6">
         <v>44556</v>
       </c>
@@ -50248,7 +49654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:10">
       <c r="A367" s="6">
         <v>44563</v>
       </c>
@@ -50271,7 +49677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:10">
       <c r="A368" s="6">
         <v>44570</v>
       </c>
@@ -51030,7 +50436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:10">
       <c r="A401" s="6">
         <v>44801</v>
       </c>
@@ -51053,7 +50459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:10">
       <c r="A402" s="6">
         <v>44808</v>
       </c>
@@ -51076,7 +50482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:10">
       <c r="A403" s="6">
         <v>44815</v>
       </c>
@@ -52529,7 +51935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:10">
       <c r="A465" s="6">
         <v>45249</v>
       </c>
@@ -52552,7 +51958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:10">
       <c r="A466" s="6">
         <v>45256</v>
       </c>
@@ -52900,7 +52306,7 @@
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:10">
       <c r="A480" s="6">
         <v>45354</v>
       </c>
@@ -53590,128 +52996,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
-      <c r="A510" s="6">
-        <v>45564</v>
-      </c>
-      <c r="B510">
-        <v>2024</v>
-      </c>
-      <c r="D510">
-        <v>40</v>
-      </c>
-      <c r="E510" t="s">
-        <v>28</v>
-      </c>
-      <c r="F510">
-        <v>3</v>
-      </c>
-      <c r="G510" t="s">
-        <v>236</v>
-      </c>
-      <c r="H510" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8">
-      <c r="A511" s="6">
-        <v>45571</v>
-      </c>
-      <c r="B511">
-        <v>2024</v>
-      </c>
-      <c r="D511">
-        <v>41</v>
-      </c>
-      <c r="E511" t="s">
-        <v>28</v>
-      </c>
-      <c r="F511">
-        <v>1</v>
-      </c>
-      <c r="G511" t="s">
-        <v>236</v>
-      </c>
-      <c r="H511" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
-      <c r="A512" s="6">
-        <v>45578</v>
-      </c>
-      <c r="B512">
-        <v>2024</v>
-      </c>
-      <c r="D512">
-        <v>42</v>
-      </c>
-      <c r="E512" t="s">
-        <v>28</v>
-      </c>
-      <c r="F512">
-        <v>2</v>
-      </c>
-      <c r="G512" t="s">
-        <v>236</v>
-      </c>
-      <c r="H512" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H494" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:H494">
-      <sortCondition ref="A1:A489"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H494" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G471" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G494" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G493" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G495" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G496" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G497" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G498" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G499" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G500" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G501" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G502" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G503" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G504" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G505" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G506" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G507" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G508" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G509" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G510" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G511" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
-    <hyperlink ref="G512" r:id="rId2" display="https://www.moh.gov.sg/resources-statistics/infectious-disease-statistics/2024/weekly-infectious-diseases-bulletin"/>
+    <hyperlink ref="G471" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="G494" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="G493" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="G495" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="G496" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="G497" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="G498" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="G499" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="G500" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="G501" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="G502" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="G503" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="G504" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="G505" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
+    <hyperlink ref="G506" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
+    <hyperlink ref="G507" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
+    <hyperlink ref="G508" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
+    <hyperlink ref="G509" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J513"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="D519" sqref="D519"/>
+    <sheetView topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="E519" sqref="E519"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="131.666666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.1111111111111"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="131.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.08203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -53737,7 +53065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>42008</v>
       </c>
@@ -53761,7 +53089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>42015</v>
       </c>
@@ -53785,7 +53113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>42022</v>
       </c>
@@ -54069,7 +53397,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>42099</v>
       </c>
@@ -54093,7 +53421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>42106</v>
       </c>
@@ -55269,7 +54597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:10">
       <c r="A65" s="2">
         <v>42449</v>
       </c>
@@ -55293,7 +54621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:10">
       <c r="A66" s="2">
         <v>42456</v>
       </c>
@@ -55317,7 +54645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:10">
       <c r="A67" s="2">
         <v>42463</v>
       </c>
@@ -55341,7 +54669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:10">
       <c r="A68" s="2">
         <v>42470</v>
       </c>
@@ -55365,7 +54693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:10">
       <c r="A69" s="2">
         <v>42477</v>
       </c>
@@ -55389,7 +54717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:10">
       <c r="A70" s="2">
         <v>42484</v>
       </c>
@@ -55413,7 +54741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:10">
       <c r="A71" s="2">
         <v>42491</v>
       </c>
@@ -55437,7 +54765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:10">
       <c r="A72" s="2">
         <v>42498</v>
       </c>
@@ -55721,7 +55049,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>42575</v>
       </c>
@@ -55745,7 +55073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>42582</v>
       </c>
@@ -55769,7 +55097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>42589</v>
       </c>
@@ -55793,7 +55121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>42596</v>
       </c>
@@ -55817,7 +55145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:10">
       <c r="A87" s="2">
         <v>42603</v>
       </c>
@@ -55841,7 +55169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:10">
       <c r="A88" s="2">
         <v>42610</v>
       </c>
@@ -55865,7 +55193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:10">
       <c r="A89" s="2">
         <v>42617</v>
       </c>
@@ -55889,7 +55217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:10">
       <c r="A90" s="2">
         <v>42624</v>
       </c>
@@ -55913,7 +55241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:10">
       <c r="A91" s="2">
         <v>42631</v>
       </c>
@@ -55937,7 +55265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:10">
       <c r="A92" s="2">
         <v>42638</v>
       </c>
@@ -55961,7 +55289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:10">
       <c r="A93" s="2">
         <v>42645</v>
       </c>
@@ -55985,7 +55313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:10">
       <c r="A94" s="2">
         <v>42652</v>
       </c>
@@ -56009,7 +55337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:10">
       <c r="A95" s="2">
         <v>42659</v>
       </c>
@@ -56033,7 +55361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:10">
       <c r="A96" s="2">
         <v>42666</v>
       </c>
@@ -56825,7 +56153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:10">
       <c r="A129" s="2">
         <v>42897</v>
       </c>
@@ -57109,7 +56437,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:10">
       <c r="A140" s="2">
         <v>42974</v>
       </c>
@@ -57133,7 +56461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:10">
       <c r="A141" s="2">
         <v>42981</v>
       </c>
@@ -57157,7 +56485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:10">
       <c r="A142" s="2">
         <v>42988</v>
       </c>
@@ -57181,7 +56509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:10">
       <c r="A143" s="2">
         <v>42995</v>
       </c>
@@ -57205,7 +56533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:10">
       <c r="A144" s="2">
         <v>43002</v>
       </c>
@@ -58381,7 +57709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:10">
       <c r="A193" s="2">
         <v>43345</v>
       </c>
@@ -58405,7 +57733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:10">
       <c r="A194" s="2">
         <v>43352</v>
       </c>
@@ -58689,7 +58017,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:10">
       <c r="A205" s="2">
         <v>43429</v>
       </c>
@@ -58713,7 +58041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:10">
       <c r="A206" s="2">
         <v>43436</v>
       </c>
@@ -58737,7 +58065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:10">
       <c r="A207" s="2">
         <v>43443</v>
       </c>
@@ -58761,7 +58089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:10">
       <c r="A208" s="2">
         <v>43450</v>
       </c>
@@ -59937,7 +59265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:10">
       <c r="A257" s="2">
         <v>43793</v>
       </c>
@@ -59961,7 +59289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:10">
       <c r="A258" s="2">
         <v>43800</v>
       </c>
@@ -59985,7 +59313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:10">
       <c r="A259" s="2">
         <v>43807</v>
       </c>
@@ -60009,7 +59337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:10">
       <c r="A260" s="2">
         <v>43814</v>
       </c>
@@ -60293,7 +59621,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:10">
       <c r="A271" s="2">
         <v>43891</v>
       </c>
@@ -60317,7 +59645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:10">
       <c r="A272" s="2">
         <v>43898</v>
       </c>
@@ -61109,7 +60437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:10">
       <c r="A305" s="2">
         <v>44129</v>
       </c>
@@ -61133,7 +60461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:10">
       <c r="A306" s="2">
         <v>44136</v>
       </c>
@@ -61157,7 +60485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:10">
       <c r="A307" s="2">
         <v>44143</v>
       </c>
@@ -61181,7 +60509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:10">
       <c r="A308" s="2">
         <v>44150</v>
       </c>
@@ -61205,7 +60533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:10">
       <c r="A309" s="2">
         <v>44157</v>
       </c>
@@ -61229,7 +60557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:10">
       <c r="A310" s="2">
         <v>44164</v>
       </c>
@@ -61253,7 +60581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:10">
       <c r="A311" s="2">
         <v>44171</v>
       </c>
@@ -61277,7 +60605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:10">
       <c r="A312" s="2">
         <v>44178</v>
       </c>
@@ -61301,7 +60629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:10">
       <c r="A313" s="2">
         <v>44185</v>
       </c>
@@ -61325,7 +60653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:10">
       <c r="A314" s="2">
         <v>44192</v>
       </c>
@@ -61609,7 +60937,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:10">
       <c r="A325" s="2">
         <v>44269</v>
       </c>
@@ -61633,7 +60961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:10">
       <c r="A326" s="2">
         <v>44276</v>
       </c>
@@ -61657,7 +60985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:10">
       <c r="A327" s="2">
         <v>44283</v>
       </c>
@@ -61681,7 +61009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:10">
       <c r="A328" s="2">
         <v>44290</v>
       </c>
@@ -61705,7 +61033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:10">
       <c r="A329" s="2">
         <v>44297</v>
       </c>
@@ -61729,7 +61057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:10">
       <c r="A330" s="2">
         <v>44304</v>
       </c>
@@ -61753,7 +61081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:10">
       <c r="A331" s="2">
         <v>44311</v>
       </c>
@@ -61777,7 +61105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:10">
       <c r="A332" s="2">
         <v>44318</v>
       </c>
@@ -61801,7 +61129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:10">
       <c r="A333" s="2">
         <v>44325</v>
       </c>
@@ -61825,7 +61153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:10">
       <c r="A334" s="2">
         <v>44332</v>
       </c>
@@ -61849,7 +61177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:10">
       <c r="A335" s="2">
         <v>44339</v>
       </c>
@@ -61873,7 +61201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:10">
       <c r="A336" s="2">
         <v>44346</v>
       </c>
@@ -63309,7 +62637,7 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:10">
       <c r="A395" s="2">
         <v>44759</v>
       </c>
@@ -63333,7 +62661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:10">
       <c r="A396" s="2">
         <v>44766</v>
       </c>
@@ -63357,7 +62685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:10">
       <c r="A397" s="2">
         <v>44773</v>
       </c>
@@ -63381,7 +62709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:10">
       <c r="A398" s="2">
         <v>44780</v>
       </c>
@@ -63405,7 +62733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:10">
       <c r="A399" s="2">
         <v>44787</v>
       </c>
@@ -63429,7 +62757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:10">
       <c r="A400" s="2">
         <v>44794</v>
       </c>
@@ -64605,7 +63933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:10">
       <c r="A449" s="2">
         <v>45137</v>
       </c>
@@ -64629,7 +63957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:10">
       <c r="A450" s="2">
         <v>45144</v>
       </c>
@@ -64653,7 +63981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:10">
       <c r="A451" s="2">
         <v>45151</v>
       </c>
@@ -64677,7 +64005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:10">
       <c r="A452" s="2">
         <v>45158</v>
       </c>
@@ -64701,7 +64029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:10">
       <c r="A453" s="2">
         <v>45165</v>
       </c>
@@ -64725,7 +64053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:10">
       <c r="A454" s="2">
         <v>45172</v>
       </c>
@@ -64749,7 +64077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:10">
       <c r="A455" s="2">
         <v>45179</v>
       </c>
@@ -64773,7 +64101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:10">
       <c r="A456" s="2">
         <v>45186</v>
       </c>
@@ -65057,7 +64385,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:10">
       <c r="A467" s="2">
         <v>45263</v>
       </c>
@@ -65081,7 +64409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:10">
       <c r="A468" s="2">
         <v>45270</v>
       </c>
@@ -65105,7 +64433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:10">
       <c r="A469" s="2">
         <v>45277</v>
       </c>
@@ -65129,7 +64457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:10">
       <c r="A470" s="2">
         <v>45284</v>
       </c>
@@ -65153,7 +64481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:10">
       <c r="A471" s="2">
         <v>45291</v>
       </c>
@@ -65177,7 +64505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:10">
       <c r="A472" s="2">
         <v>45298</v>
       </c>
@@ -65201,7 +64529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:10">
       <c r="A473" s="2">
         <v>45305</v>
       </c>
@@ -65225,7 +64553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:10">
       <c r="A474" s="2">
         <v>45312</v>
       </c>
@@ -65249,7 +64577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:10">
       <c r="A475" s="2">
         <v>45319</v>
       </c>
@@ -65273,7 +64601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:10">
       <c r="A476" s="2">
         <v>45326</v>
       </c>
@@ -65297,7 +64625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:10">
       <c r="A477" s="2">
         <v>45333</v>
       </c>
@@ -65321,7 +64649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:10">
       <c r="A478" s="2">
         <v>45340</v>
       </c>
@@ -65345,7 +64673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:10">
       <c r="A479" s="2">
         <v>45347</v>
       </c>
@@ -65369,7 +64697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:10">
       <c r="A480" s="2">
         <v>45354</v>
       </c>
@@ -66070,109 +65398,37 @@
       </c>
     </row>
     <row r="510" spans="1:8">
-      <c r="A510" s="6">
-        <v>45564</v>
-      </c>
-      <c r="B510" s="1">
-        <v>2024</v>
-      </c>
-      <c r="D510" s="1">
-        <v>40</v>
-      </c>
-      <c r="E510" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F510" s="1">
-        <v>302</v>
-      </c>
-      <c r="G510" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H510" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8">
-      <c r="A511" s="6">
-        <v>45571</v>
-      </c>
-      <c r="B511" s="1">
-        <v>2024</v>
-      </c>
-      <c r="D511" s="1">
-        <v>41</v>
-      </c>
-      <c r="E511" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F511" s="1">
-        <v>246</v>
-      </c>
-      <c r="G511" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="H511" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
-      <c r="A512" s="6">
-        <v>45578</v>
-      </c>
-      <c r="B512" s="1">
-        <v>2024</v>
-      </c>
-      <c r="D512" s="1">
-        <v>42</v>
-      </c>
-      <c r="E512" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F512" s="1">
-        <v>348</v>
-      </c>
-      <c r="G512" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="H512" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1">
-      <c r="A513" s="6"/>
+      <c r="A510" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G125" r:id="rId1" display="https://wonder.cdc.gov/nndss/static/2017/20/2017-20-table2K.html"/>
-    <hyperlink ref="G126" r:id="rId2" display="https://wonder.cdc.gov/nndss/static/2017/21/2017-21-table2K.html"/>
-    <hyperlink ref="G204" r:id="rId3" display="https://wonder.cdc.gov/nndss/static/2018/47/2018-47-table2M.html"/>
-    <hyperlink ref="G320" r:id="rId4" display="https://wonder.cdc.gov/nndss/static/2021/06/2021-06-table1z.html" tooltip="https://wonder.cdc.gov/nndss/static/2021/06/2021-06-table1z.html"/>
-    <hyperlink ref="G298" r:id="rId5" display="https://wonder.cdc.gov/nndss/static/2020/37/2020-37-table1z.html"/>
-    <hyperlink ref="G463" r:id="rId6" display="https://wonder.cdc.gov/nndss/static/2023/45/2023-45-table990.html"/>
-    <hyperlink ref="G72" r:id="rId7" display="https://wonder.cdc.gov/nndss/nndss_weekly_tables_2016.asp?mmwr_year=2016&amp;mmwr_week=19&amp;mmwr_table=2I&amp;request=Submit"/>
-    <hyperlink ref="G494" r:id="rId8" display="https://wonder.cdc.gov/nndss/static/2024/24/2024-24-table990.html"/>
-    <hyperlink ref="G418" r:id="rId9" display="https://wonder.cdc.gov/nndss/static/2022/52/2022-52-table1z.html"/>
-    <hyperlink ref="G495" r:id="rId10" display="https://wonder.cdc.gov/nndss/static/2024/25/2024-25-table990.html"/>
-    <hyperlink ref="G493" r:id="rId11" display="https://wonder.cdc.gov/nndss/static/2024/23/2024-23-table990.html"/>
-    <hyperlink ref="G496" r:id="rId12" display="https://wonder.cdc.gov/nndss/static/2024/26/2024-26-table990.html"/>
-    <hyperlink ref="G497" r:id="rId13" display="https://wonder.cdc.gov/nndss/static/2024/27/2024-27-table990.html"/>
-    <hyperlink ref="G498" r:id="rId14" display="https://wonder.cdc.gov/nndss/static/2024/28/2024-28-table990.html"/>
-    <hyperlink ref="G499" r:id="rId15" display="https://wonder.cdc.gov/nndss/static/2024/29/2024-29-table990.html"/>
-    <hyperlink ref="G500" r:id="rId16" display="https://wonder.cdc.gov/nndss/static/2024/30/2024-30-table990.html"/>
-    <hyperlink ref="G501" r:id="rId17" display="https://wonder.cdc.gov/nndss/static/2024/31/2024-31-table990.html"/>
-    <hyperlink ref="G502" r:id="rId18" display="https://wonder.cdc.gov/nndss/static/2024/32/2024-32-table990.html"/>
-    <hyperlink ref="G503" r:id="rId19" display="https://wonder.cdc.gov/nndss/static/2024/33/2024-33-table990.html"/>
-    <hyperlink ref="G504" r:id="rId20" display="https://wonder.cdc.gov/nndss/static/2024/34/2024-34-table990.html"/>
-    <hyperlink ref="G505" r:id="rId21" display="https://wonder.cdc.gov/nndss/static/2024/35/2024-35-table990.html"/>
-    <hyperlink ref="G506" r:id="rId22" display="https://wonder.cdc.gov/nndss/static/2024/36/2024-36-table990.html"/>
-    <hyperlink ref="G507" r:id="rId23" display="https://wonder.cdc.gov/nndss/static/2024/37/2024-37-table990.html" tooltip="https://wonder.cdc.gov/nndss/static/2024/37/2024-37-table990.html"/>
-    <hyperlink ref="G508" r:id="rId24" display="https://wonder.cdc.gov/nndss/static/2024/38/2024-38-table990.html" tooltip="https://wonder.cdc.gov/nndss/static/2024/38/2024-38-table990.html"/>
-    <hyperlink ref="G509" r:id="rId25" display="https://wonder.cdc.gov/nndss/static/2024/39/2024-39-table990.html"/>
-    <hyperlink ref="G510" r:id="rId26" display="https://wonder.cdc.gov/nndss/static/2024/40/2024-40-table990.html"/>
-    <hyperlink ref="G511" r:id="rId27" display="https://wonder.cdc.gov/nndss/static/2024/41/2024-41-table990.html"/>
-    <hyperlink ref="G512" r:id="rId28" display="https://wonder.cdc.gov/nndss/static/2024/42/2024-42-table990.html" tooltip="https://wonder.cdc.gov/nndss/static/2024/42/2024-42-table990.html"/>
+    <hyperlink ref="G125" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="G126" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="G204" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="G320" r:id="rId4" tooltip="https://wonder.cdc.gov/nndss/static/2021/06/2021-06-table1z.html" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="G298" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="G463" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="G72" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="G494" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="G418" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
+    <hyperlink ref="G495" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
+    <hyperlink ref="G493" r:id="rId11" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
+    <hyperlink ref="G496" r:id="rId12" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
+    <hyperlink ref="G497" r:id="rId13" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
+    <hyperlink ref="G498" r:id="rId14" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
+    <hyperlink ref="G499" r:id="rId15" xr:uid="{00000000-0004-0000-0800-00000E000000}"/>
+    <hyperlink ref="G500" r:id="rId16" xr:uid="{00000000-0004-0000-0800-00000F000000}"/>
+    <hyperlink ref="G501" r:id="rId17" xr:uid="{00000000-0004-0000-0800-000010000000}"/>
+    <hyperlink ref="G502" r:id="rId18" xr:uid="{00000000-0004-0000-0800-000011000000}"/>
+    <hyperlink ref="G503" r:id="rId19" xr:uid="{00000000-0004-0000-0800-000012000000}"/>
+    <hyperlink ref="G504" r:id="rId20" xr:uid="{00000000-0004-0000-0800-000013000000}"/>
+    <hyperlink ref="G505" r:id="rId21" xr:uid="{00000000-0004-0000-0800-000014000000}"/>
+    <hyperlink ref="G506" r:id="rId22" xr:uid="{00000000-0004-0000-0800-000015000000}"/>
+    <hyperlink ref="G507" r:id="rId23" tooltip="https://wonder.cdc.gov/nndss/static/2024/37/2024-37-table990.html" xr:uid="{00000000-0004-0000-0800-000016000000}"/>
+    <hyperlink ref="G508" r:id="rId24" tooltip="https://wonder.cdc.gov/nndss/static/2024/38/2024-38-table990.html" xr:uid="{00000000-0004-0000-0800-000017000000}"/>
+    <hyperlink ref="G509" r:id="rId25" xr:uid="{00000000-0004-0000-0800-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>